--- a/biology/Biochimie/Michael_Sheetz/Michael_Sheetz.xlsx
+++ b/biology/Biochimie/Michael_Sheetz/Michael_Sheetz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Patrick Sheetz est un biologiste cellulaire à l'université Columbia et un professeur émérite et directeur fondateur de Mechanobiology Institute à l'Université nationale de Singapour. Il est pionnier dans la mécanobiologie et la biomécanique.
 En 1968, Sheetz a obtenu un baccalauréat universitaire au Albion College et, en 1972, il obtient son Philosophiæ doctor au California Institute of Technology. En 1985 il est devenu professeur de biologie cellulaire et de physiologie à l'université Washington de Saint-Louis dans le Missouri.
@@ -513,12 +525,14 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2012 : Prix Wiley en sciences biomédicales[1]
-2012 : Prix Albert-Lasker pour la recherche médicale fondamentale[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2012 : Prix Wiley en sciences biomédicales
+2012 : Prix Albert-Lasker pour la recherche médicale fondamentale
 2013 : Prix Massry
-2014 : Keith R. Porter Lecture de l'American Society for Cell Biology[3]</t>
+2014 : Keith R. Porter Lecture de l'American Society for Cell Biology</t>
         </is>
       </c>
     </row>
